--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4146979.749801587</v>
+        <v>4145099.570031258</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>591171.970566283</v>
+        <v>134060.3852767117</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>346.6999128968763</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>123.0855352763924</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>126.7632886126195</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>258.2668337170626</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>65.2453208166456</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>94.65568569260671</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>8.78742075103631</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>40.46302833986975</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>138.1056888072237</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>70.80276983270103</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>9.461970681989442</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>80.83119524461033</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>143.2865556730376</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>183.4653217847137</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>64.0254586868338</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>70.41761368552112</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>132.2000247838411</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S19" t="n">
         <v>186.8801586578918</v>
       </c>
       <c r="T19" t="n">
-        <v>210.5069097326778</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.1967010728659</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>241.0969919981166</v>
@@ -2093,13 +2093,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>70.41761368552112</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>98.92370107808138</v>
       </c>
       <c r="S22" t="n">
-        <v>186.8801586578918</v>
+        <v>25.64994637835961</v>
       </c>
       <c r="T22" t="n">
         <v>210.5069097326778</v>
@@ -2296,16 +2296,16 @@
         <v>275.1967010728659</v>
       </c>
       <c r="V22" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>214.6690040633257</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>207.5440020263834</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
         <v>251.078595249801</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>49.75377031702862</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>134.3803966972199</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>186.8801586578919</v>
       </c>
       <c r="T25" t="n">
         <v>210.5069097326779</v>
       </c>
       <c r="U25" t="n">
-        <v>275.1967010728659</v>
+        <v>75.99557917667373</v>
       </c>
       <c r="V25" t="n">
-        <v>241.0969919981166</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>275.4823470108796</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>168.7913288562259</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>156.2061697729164</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>70.41761368552051</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>98.92370107808134</v>
       </c>
       <c r="S28" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T28" t="n">
-        <v>210.5069097326779</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.1967010728659</v>
@@ -2773,13 +2773,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W28" t="n">
-        <v>275.4823470108796</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>132.4856707218551</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>70.41761368552052</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>98.92370107808132</v>
       </c>
       <c r="S31" t="n">
-        <v>186.8801586578919</v>
+        <v>186.8801586578918</v>
       </c>
       <c r="T31" t="n">
-        <v>210.5069097326779</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U31" t="n">
         <v>275.1967010728659</v>
@@ -3010,13 +3010,13 @@
         <v>241.0969919981166</v>
       </c>
       <c r="W31" t="n">
-        <v>275.4823470108796</v>
+        <v>39.43225759193639</v>
       </c>
       <c r="X31" t="n">
-        <v>214.6690040633258</v>
+        <v>214.6690040633257</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>207.5440020263833</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
         <v>42.2873553346313</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463136</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="C2" t="n">
-        <v>936.2491605982757</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>577.9834619915252</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>192.195209393281</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4370,10 +4370,10 @@
         <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982757</v>
+        <v>1309.714918859356</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4401,31 +4401,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>113.6371076753678</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>368.8844281164663</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>773.5003462121382</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>570.6683391887233</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335.6874762441716</v>
+        <v>1271.984870679801</v>
       </c>
       <c r="C5" t="n">
-        <v>335.6874762441716</v>
+        <v>903.0223537393897</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>544.7566551326393</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4565,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>2035.589960916693</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1662.124202655613</v>
       </c>
       <c r="Y5" t="n">
-        <v>722.2873163082934</v>
+        <v>1271.984870679801</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781771</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5547855502702</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>290.8087152951862</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084169</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.00952757579</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="C8" t="n">
-        <v>806.0470106353782</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2656.277345220374</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2656.277345220374</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2656.277345220374</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2325.214457876803</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.214457876803</v>
+        <v>1754.189055519933</v>
       </c>
       <c r="X8" t="n">
-        <v>1951.748699615723</v>
+        <v>1380.723297258854</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.609367639912</v>
+        <v>990.5839652830418</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4881,16 +4881,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,28 +4902,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M12" t="n">
-        <v>1672.759814717971</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>2374.820091292176</v>
+        <v>1786.860405229007</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>840.6662285267282</v>
+        <v>178.8647634245388</v>
       </c>
       <c r="C13" t="n">
-        <v>671.7300455988213</v>
+        <v>178.8647634245388</v>
       </c>
       <c r="D13" t="n">
-        <v>671.7300455988213</v>
+        <v>178.8647634245388</v>
       </c>
       <c r="E13" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5203,10 +5203,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,10 +5215,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
@@ -5227,22 +5227,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1243.107272500498</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1243.107272500498</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="V13" t="n">
-        <v>1243.107272500498</v>
+        <v>1098.712528333287</v>
       </c>
       <c r="W13" t="n">
-        <v>1243.107272500498</v>
+        <v>809.295358296326</v>
       </c>
       <c r="X13" t="n">
-        <v>1243.107272500498</v>
+        <v>581.3058073983086</v>
       </c>
       <c r="Y13" t="n">
-        <v>1022.314693356968</v>
+        <v>360.5132282547785</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5273,10 +5273,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5291,28 +5291,28 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5352,31 +5352,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>836.4717212750122</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>1949.360523305092</v>
       </c>
       <c r="O15" t="n">
-        <v>2623.573505376138</v>
+        <v>2198.113937389054</v>
       </c>
       <c r="P15" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241956</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609663</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550795</v>
+        <v>620.2426249169048</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>330.8254548799441</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,10 +5513,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5592,28 +5592,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>223.2322278932326</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>348.58978795107</v>
       </c>
       <c r="L18" t="n">
-        <v>1122.004430061687</v>
+        <v>578.5528938194192</v>
       </c>
       <c r="M18" t="n">
-        <v>1890.372576454149</v>
+        <v>1346.921040211881</v>
       </c>
       <c r="N18" t="n">
-        <v>2374.820091292176</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,10 +5647,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>388.536479901455</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>230.7524700298223</v>
       </c>
       <c r="D19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>120.53002873665</v>
       </c>
       <c r="K19" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L19" t="n">
-        <v>540.2879676172994</v>
+        <v>540.2879676172993</v>
       </c>
       <c r="M19" t="n">
-        <v>822.7849551969365</v>
+        <v>822.7849551969364</v>
       </c>
       <c r="N19" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O19" t="n">
-        <v>1349.06453185479</v>
+        <v>1349.064531854789</v>
       </c>
       <c r="P19" t="n">
         <v>1536.594541272927</v>
@@ -5695,28 +5695,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R19" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S19" t="n">
-        <v>1397.590392029364</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T19" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U19" t="n">
-        <v>906.9806841449758</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="V19" t="n">
-        <v>663.4483689953631</v>
+        <v>1054.13514649785</v>
       </c>
       <c r="W19" t="n">
-        <v>385.1833720146767</v>
+        <v>775.8701495171638</v>
       </c>
       <c r="X19" t="n">
-        <v>168.3459941729334</v>
+        <v>559.0327716754206</v>
       </c>
       <c r="Y19" t="n">
-        <v>168.3459941729334</v>
+        <v>559.0327716754206</v>
       </c>
     </row>
     <row r="20">
@@ -5729,25 +5729,25 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
@@ -5768,31 +5768,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5817,34 +5817,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028583</v>
+        <v>309.0622245438794</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171745</v>
+        <v>309.0622245438794</v>
       </c>
       <c r="M21" t="n">
-        <v>1149.698165809328</v>
+        <v>629.3975440735812</v>
       </c>
       <c r="N21" t="n">
-        <v>1954.109744073479</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O21" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028583</v>
+        <v>372.9424783424664</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028583</v>
+        <v>372.9424783424664</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028583</v>
+        <v>233.9780119864048</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>120.53002873665</v>
       </c>
       <c r="K22" t="n">
-        <v>281.6456777937157</v>
+        <v>281.6456777937158</v>
       </c>
       <c r="L22" t="n">
         <v>540.2879676172993</v>
       </c>
       <c r="M22" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969363</v>
       </c>
       <c r="N22" t="n">
         <v>1104.259309036938</v>
@@ -5932,28 +5932,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R22" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675636</v>
       </c>
       <c r="S22" t="n">
-        <v>1397.590392029363</v>
+        <v>1460.526261929819</v>
       </c>
       <c r="T22" t="n">
-        <v>1184.957149875143</v>
+        <v>1247.893019775599</v>
       </c>
       <c r="U22" t="n">
-        <v>906.9806841449757</v>
+        <v>969.9165540454311</v>
       </c>
       <c r="V22" t="n">
-        <v>663.448368995363</v>
+        <v>969.9165540454311</v>
       </c>
       <c r="W22" t="n">
-        <v>385.1833720146766</v>
+        <v>969.9165540454311</v>
       </c>
       <c r="X22" t="n">
-        <v>168.3459941729334</v>
+        <v>753.0791762036879</v>
       </c>
       <c r="Y22" t="n">
-        <v>168.3459941729334</v>
+        <v>543.4387701164319</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,49 +5984,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M24" t="n">
-        <v>2056.693778606511</v>
+        <v>772.8730769161742</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>1826.038069264287</v>
       </c>
       <c r="P24" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028586</v>
+        <v>232.9548659019222</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028586</v>
+        <v>232.9548659019222</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028586</v>
+        <v>232.9548659019222</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028586</v>
+        <v>232.9548659019222</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K25" t="n">
-        <v>281.6456777937158</v>
+        <v>281.6456777937157</v>
       </c>
       <c r="L25" t="n">
         <v>540.2879676172993</v>
@@ -6163,34 +6163,34 @@
         <v>1349.064531854789</v>
       </c>
       <c r="P25" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R25" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="S25" t="n">
-        <v>1586.358229057536</v>
+        <v>1397.590392029363</v>
       </c>
       <c r="T25" t="n">
-        <v>1373.724986903316</v>
+        <v>1184.957149875143</v>
       </c>
       <c r="U25" t="n">
-        <v>1095.748521173149</v>
+        <v>1108.193938585574</v>
       </c>
       <c r="V25" t="n">
-        <v>852.2162060235358</v>
+        <v>1108.193938585574</v>
       </c>
       <c r="W25" t="n">
-        <v>573.9512090428493</v>
+        <v>829.9289416048869</v>
       </c>
       <c r="X25" t="n">
-        <v>357.1138312011061</v>
+        <v>613.0915637631438</v>
       </c>
       <c r="Y25" t="n">
-        <v>147.4734251138501</v>
+        <v>403.4511576758878</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6218,37 @@
         <v>488.1932370805471</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028587</v>
+        <v>118.6619711928861</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028587</v>
+        <v>118.6619711928861</v>
       </c>
       <c r="M27" t="n">
-        <v>334.2881267578673</v>
+        <v>887.0301175853476</v>
       </c>
       <c r="N27" t="n">
-        <v>1138.699705022018</v>
+        <v>1691.441695849499</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2360.905457152158</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.3459941729328</v>
+        <v>255.0011013319186</v>
       </c>
       <c r="C28" t="n">
-        <v>168.3459941729328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>168.3459941729328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>168.3459941729328</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
         <v>97.21709146028587</v>
@@ -6382,22 +6382,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>120.53002873665</v>
+        <v>120.5300287366501</v>
       </c>
       <c r="K28" t="n">
         <v>281.6456777937159</v>
       </c>
       <c r="L28" t="n">
-        <v>540.2879676172995</v>
+        <v>540.2879676172996</v>
       </c>
       <c r="M28" t="n">
-        <v>822.7849551969364</v>
+        <v>822.7849551969367</v>
       </c>
       <c r="N28" t="n">
-        <v>1104.259309036938</v>
+        <v>1104.259309036939</v>
       </c>
       <c r="O28" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P28" t="n">
         <v>1536.594541272927</v>
@@ -6406,28 +6406,28 @@
         <v>1586.358229057537</v>
       </c>
       <c r="R28" t="n">
-        <v>1586.358229057537</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S28" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T28" t="n">
-        <v>1184.957149875143</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="U28" t="n">
-        <v>906.9806841449753</v>
+        <v>1019.690995917296</v>
       </c>
       <c r="V28" t="n">
-        <v>663.4483689953624</v>
+        <v>776.158680767683</v>
       </c>
       <c r="W28" t="n">
-        <v>385.183372014676</v>
+        <v>776.158680767683</v>
       </c>
       <c r="X28" t="n">
-        <v>168.3459941729328</v>
+        <v>559.3213029259398</v>
       </c>
       <c r="Y28" t="n">
-        <v>168.3459941729328</v>
+        <v>425.4973931058842</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6470,10 +6470,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643324</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>1375.970136384494</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2045.433897687154</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.3459941729326</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>168.3459941729326</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>168.3459941729326</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028587</v>
@@ -6619,52 +6619,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>120.5300287366501</v>
+        <v>120.53002873665</v>
       </c>
       <c r="K31" t="n">
         <v>281.6456777937158</v>
       </c>
       <c r="L31" t="n">
-        <v>540.2879676172993</v>
+        <v>540.2879676172995</v>
       </c>
       <c r="M31" t="n">
-        <v>822.7849551969363</v>
+        <v>822.7849551969366</v>
       </c>
       <c r="N31" t="n">
         <v>1104.259309036938</v>
       </c>
       <c r="O31" t="n">
-        <v>1349.064531854789</v>
+        <v>1349.06453185479</v>
       </c>
       <c r="P31" t="n">
-        <v>1536.594541272926</v>
+        <v>1536.594541272927</v>
       </c>
       <c r="Q31" t="n">
-        <v>1586.358229057536</v>
+        <v>1586.358229057537</v>
       </c>
       <c r="R31" t="n">
-        <v>1586.358229057536</v>
+        <v>1486.435298675637</v>
       </c>
       <c r="S31" t="n">
-        <v>1397.590392029363</v>
+        <v>1297.667461647463</v>
       </c>
       <c r="T31" t="n">
-        <v>1184.957149875143</v>
+        <v>1085.034219493243</v>
       </c>
       <c r="U31" t="n">
-        <v>906.980684144975</v>
+        <v>807.0577537630759</v>
       </c>
       <c r="V31" t="n">
-        <v>663.4483689953622</v>
+        <v>563.5254386134632</v>
       </c>
       <c r="W31" t="n">
-        <v>385.1833720146758</v>
+        <v>523.694875389285</v>
       </c>
       <c r="X31" t="n">
-        <v>168.3459941729326</v>
+        <v>306.8574975475418</v>
       </c>
       <c r="Y31" t="n">
-        <v>168.3459941729326</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6677,40 +6677,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>452.5377573864724</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>772.8730769161741</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>1577.284655180325</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>1826.038069264287</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
@@ -6847,13 +6847,13 @@
         <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982971</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6862,46 +6862,46 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010315</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,10 +6923,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6935,28 +6935,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7002,13 +7002,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>493.5013994809973</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1261.869545873459</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2066.28112413761</v>
       </c>
       <c r="O36" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P36" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504509</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,22 +7093,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,43 +7148,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7196,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,40 +7239,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L39" t="n">
-        <v>263.5382936126482</v>
+        <v>661.6060969157195</v>
       </c>
       <c r="M39" t="n">
-        <v>334.2881267578673</v>
+        <v>1429.974243308181</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1774.494898945799</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,55 +7306,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>711.1141612171746</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1031.449480746876</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>1375.970136384494</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7567,10 +7567,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028587</v>
@@ -7649,49 +7649,49 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7725,28 +7725,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>800.8708618797941</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1121.206181409496</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>1465.726837047114</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,52 +7804,52 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8784,10 +8784,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9018,13 +9018,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>254.9038403174317</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,10 +9480,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9729,13 +9729,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>159.5029336537532</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -10191,7 +10191,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10203,13 +10203,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10440,13 +10440,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10665,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10677,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>212.2017739516801</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>213.598511846482</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,7 +11139,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11388,13 +11388,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.60276740195884</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>78.26100538535167</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>161.6841967022033</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,13 +23887,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.37371517070474</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>137.5748216925009</v>
+        <v>5.374796908659818</v>
       </c>
       <c r="E19" t="n">
         <v>135.3933113208577</v>
@@ -23908,7 +23908,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I19" t="n">
-        <v>99.37859413856054</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>98.92370107808135</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.1967010728659</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.37371517070476</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D22" t="n">
-        <v>137.5748216925009</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>135.3933113208577</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>134.3803966972198</v>
@@ -24145,7 +24145,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I22" t="n">
-        <v>99.37859413856056</v>
+        <v>99.37859413856057</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>98.92370107808136</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>161.2302122795322</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,16 +24184,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>119.0375585391973</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>156.2061697729164</v>
+        <v>156.2061697729165</v>
       </c>
       <c r="D25" t="n">
         <v>137.574821692501</v>
@@ -24373,16 +24373,16 @@
         <v>135.3933113208578</v>
       </c>
       <c r="F25" t="n">
-        <v>134.3803966972199</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>155.4529171376662</v>
       </c>
       <c r="H25" t="n">
-        <v>137.8731770418247</v>
+        <v>137.8731770418248</v>
       </c>
       <c r="I25" t="n">
-        <v>99.37859413856059</v>
+        <v>99.3785941385606</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>98.92370107808139</v>
+        <v>98.92370107808141</v>
       </c>
       <c r="S25" t="n">
-        <v>186.8801586578919</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>199.2011218961922</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>241.0969919981166</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>168.7913288562259</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>156.2061697729164</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E28" t="n">
-        <v>135.3933113208578</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F28" t="n">
-        <v>63.96278301169934</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G28" t="n">
         <v>155.4529171376662</v>
@@ -24619,7 +24619,7 @@
         <v>137.8731770418247</v>
       </c>
       <c r="I28" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856053</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>210.5069097326778</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>275.4823470108796</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>207.5440020263834</v>
+        <v>75.05833130452825</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>168.7913288562259</v>
+        <v>168.7913288562258</v>
       </c>
       <c r="C31" t="n">
         <v>156.2061697729164</v>
       </c>
       <c r="D31" t="n">
-        <v>137.574821692501</v>
+        <v>137.5748216925009</v>
       </c>
       <c r="E31" t="n">
-        <v>64.97569763533726</v>
+        <v>135.3933113208577</v>
       </c>
       <c r="F31" t="n">
-        <v>134.3803966972199</v>
+        <v>134.3803966972198</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4529171376662</v>
+        <v>155.4529171376661</v>
       </c>
       <c r="H31" t="n">
         <v>137.8731770418247</v>
       </c>
       <c r="I31" t="n">
-        <v>99.37859413856059</v>
+        <v>99.37859413856052</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>98.92370107808139</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,13 +24898,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>236.0500894189432</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>207.5440020263834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>630700.2804147542</v>
+        <v>630700.2804147541</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>630700.2804147542</v>
+        <v>630700.2804147541</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>630700.2804147542</v>
+        <v>630700.2804147541</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>630700.2804147542</v>
+        <v>630700.2804147541</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
       <c r="F2" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.2135016472</v>
       </c>
       <c r="G2" t="n">
         <v>748956.5829925193</v>
       </c>
       <c r="H2" t="n">
+        <v>748956.5829925195</v>
+      </c>
+      <c r="I2" t="n">
+        <v>748956.5829925193</v>
+      </c>
+      <c r="J2" t="n">
         <v>748956.582992519</v>
       </c>
-      <c r="I2" t="n">
-        <v>748956.5829925195</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>748956.5829925191</v>
       </c>
-      <c r="K2" t="n">
-        <v>748956.5829925193</v>
-      </c>
       <c r="L2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="M2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
       <c r="N2" t="n">
         <v>779989.6813710694</v>
       </c>
       <c r="O2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710694</v>
       </c>
       <c r="P2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710693</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>8832.521060569148</v>
+        <v>8832.521060568801</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.256805717275711e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>54505.51210371258</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757877</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758875</v>
+        <v>787.7936905757996</v>
       </c>
       <c r="G4" t="n">
-        <v>4420.718193415197</v>
+        <v>4420.718193415194</v>
       </c>
       <c r="H4" t="n">
-        <v>4420.718193415236</v>
+        <v>4420.718193415194</v>
       </c>
       <c r="I4" t="n">
-        <v>4420.718193415168</v>
+        <v>4420.718193415133</v>
       </c>
       <c r="J4" t="n">
-        <v>4420.718193415174</v>
+        <v>4420.718193415183</v>
       </c>
       <c r="K4" t="n">
-        <v>4420.718193415174</v>
+        <v>4420.718193415189</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189631</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189635</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189632</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,34 +26476,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="H5" t="n">
-        <v>92915.50246501784</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="I5" t="n">
-        <v>92915.50246501785</v>
+        <v>92915.50246501787</v>
       </c>
       <c r="J5" t="n">
         <v>92915.50246501787</v>
       </c>
       <c r="K5" t="n">
-        <v>92915.50246501787</v>
+        <v>92915.50246501788</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-31896.41508750402</v>
+        <v>-31896.41508750411</v>
       </c>
       <c r="C6" t="n">
-        <v>558071.4641270404</v>
+        <v>558071.4641270405</v>
       </c>
       <c r="D6" t="n">
         <v>558071.4641270404</v>
       </c>
       <c r="E6" t="n">
-        <v>125020.0573854585</v>
+        <v>124922.5982594861</v>
       </c>
       <c r="F6" t="n">
-        <v>650180.0938623546</v>
+        <v>650082.6347363826</v>
       </c>
       <c r="G6" t="n">
-        <v>642787.8412735171</v>
+        <v>642706.1752251529</v>
       </c>
       <c r="H6" t="n">
-        <v>651620.362334086</v>
+        <v>651538.6962857218</v>
       </c>
       <c r="I6" t="n">
-        <v>651620.3623340864</v>
+        <v>651538.6962857216</v>
       </c>
       <c r="J6" t="n">
-        <v>475197.1431414931</v>
+        <v>475115.4770931285</v>
       </c>
       <c r="K6" t="n">
-        <v>651620.3623340862</v>
+        <v>651538.6962857215</v>
       </c>
       <c r="L6" t="n">
-        <v>604562.4825154352</v>
+        <v>604562.482515435</v>
       </c>
       <c r="M6" t="n">
-        <v>524266.9793853107</v>
+        <v>524266.9793853104</v>
       </c>
       <c r="N6" t="n">
         <v>659067.9946191476</v>
       </c>
       <c r="O6" t="n">
-        <v>659067.9946191477</v>
+        <v>659067.9946191476</v>
       </c>
       <c r="P6" t="n">
-        <v>659067.9946191477</v>
+        <v>659067.9946191475</v>
       </c>
     </row>
   </sheetData>
@@ -26698,28 +26698,28 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K2" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M2" t="n">
+        <v>68.13189012964061</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
@@ -26741,43 +26741,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571149</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>18.57297887413125</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>283.7905104653191</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>19.90190336753832</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,7 +27597,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>96.41620790362037</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>316.6850492556161</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,13 +27667,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>40.30993609973152</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27828,13 +27828,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>277.7355775855547</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9526844691018</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>211.1352799101893</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>96.50703242634988</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28561,22 +28561,22 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.842170943040401e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="20">
@@ -28813,13 +28813,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.04065132571144</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="23">
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29089,7 +29089,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>-1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="C25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="D25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="E25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="F25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="G25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="H25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="I25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="J25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="K25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="L25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="M25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="N25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="O25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="P25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="R25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="S25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="T25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="U25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="V25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="W25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="X25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571137</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="C28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="D28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="E28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="F28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="G28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="H28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="I28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="J28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="K28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="L28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="M28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="N28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="O28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="P28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Q28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="R28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="S28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="T28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="U28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="V28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="W28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="X28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
       <c r="Y28" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571143</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="C31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="D31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="E31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="F31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="G31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="H31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="I31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="J31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="K31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="L31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="M31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="N31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="O31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="P31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="Q31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="R31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="S31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="T31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="U31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="V31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="W31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="X31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.04065132571141</v>
+        <v>11.04065132571145</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -31127,7 +31127,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>61.04368814949358</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,7 +31139,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O3" t="n">
         <v>193.3156655923047</v>
@@ -31148,7 +31148,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
         <v>50.44659727034982</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>167.900586832999</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31385,7 +31385,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
         <v>50.44659727034982</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,19 +31592,19 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31613,28 +31613,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,34 +31835,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>361.1511322591784</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>100.5826050876807</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,10 +31987,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,37 +31999,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,22 +32072,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32096,16 +32096,16 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,22 +32312,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>128.034607925194</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>141.3402618185954</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32336,13 +32336,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>87.36118487450119</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>119.4431162246989</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813461</v>
@@ -32567,7 +32567,7 @@
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>312.2752819045314</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565502</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,13 +33014,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -33032,28 +33032,28 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130445</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>90.6633340026462</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565502</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>312.2752819045314</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.490283364748</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,28 +33725,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33755,16 +33755,16 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041472</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>43.17892664331794</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>174.5554583423437</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647517</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>183.8504064050094</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.29709682323572</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>709.1517945193987</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>351.8486799199658</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>120.9294329031015</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>127.2880165989361</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>489.3409240788156</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>23.54842149127697</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K19" t="n">
         <v>162.743079855622</v>
       </c>
       <c r="L19" t="n">
-        <v>261.25483820564</v>
+        <v>261.2548382056399</v>
       </c>
       <c r="M19" t="n">
         <v>285.350492504684</v>
       </c>
       <c r="N19" t="n">
-        <v>284.3175291313151</v>
+        <v>284.317529131315</v>
       </c>
       <c r="O19" t="n">
         <v>247.2780028463143</v>
@@ -36060,7 +36060,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.2663512975862</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>213.9849829127208</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>443.0141460526805</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415663</v>
@@ -36215,7 +36215,7 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>23.54842149127695</v>
+        <v>23.54842149127694</v>
       </c>
       <c r="K22" t="n">
         <v>162.743079855622</v>
@@ -36297,7 +36297,7 @@
         <v>189.4242519375122</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.26635129758618</v>
+        <v>50.26635129758617</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>496.7636431301383</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127692</v>
       </c>
       <c r="K25" t="n">
         <v>162.7430798556219</v>
@@ -36525,16 +36525,16 @@
         <v>285.3504925046839</v>
       </c>
       <c r="N25" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313151</v>
       </c>
       <c r="O25" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P25" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758614</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>21.66149467939418</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127698</v>
       </c>
       <c r="K28" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L28" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M28" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N28" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O28" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463143</v>
       </c>
       <c r="P28" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375122</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758621</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109082</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>275.1516952282531</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>23.54842149127693</v>
+        <v>23.54842149127699</v>
       </c>
       <c r="K31" t="n">
-        <v>162.7430798556219</v>
+        <v>162.743079855622</v>
       </c>
       <c r="L31" t="n">
-        <v>261.2548382056399</v>
+        <v>261.25483820564</v>
       </c>
       <c r="M31" t="n">
-        <v>285.3504925046839</v>
+        <v>285.350492504684</v>
       </c>
       <c r="N31" t="n">
-        <v>284.317529131315</v>
+        <v>284.3175291313152</v>
       </c>
       <c r="O31" t="n">
-        <v>247.2780028463142</v>
+        <v>247.2780028463144</v>
       </c>
       <c r="P31" t="n">
-        <v>189.4242519375121</v>
+        <v>189.4242519375123</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.26635129758616</v>
+        <v>50.26635129758623</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>496.7636431301383</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>69.60552950723569</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303314</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>275.4648921669029</v>
       </c>
       <c r="M39" t="n">
-        <v>71.46447792446374</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>425.8215331746288</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,13 +37947,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38096,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>416.1363719285944</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
